--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3305314.258839167</v>
+        <v>3323688.948305287</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>142.9046269258102</v>
       </c>
       <c r="X2" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>165.2783941995636</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.16790000022166</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.94493529275648</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.8647200898094</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>57.73991206543082</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>94.45289593214774</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>81.25980877796469</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>67.16913891955241</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095413</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.3776555795994</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>207.2924440666654</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="G16" t="n">
-        <v>80.676222808245</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.91388839244287</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>75.47574560926941</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.24819247836926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.21716692389582</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.8652689647489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39.74667436498595</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>162.6576462105341</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>242.2076717177389</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>176.8688121773847</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>195.5278162435019</v>
       </c>
       <c r="X34" t="n">
-        <v>88.35924640834604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>95.47535372184606</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>252.6841021285859</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>165.5670450334451</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3791,10 +3791,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0.4644937537383609</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>254.4736925192387</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>48.52899175806638</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>56.57845968187848</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>2309.40863894584</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>643.1109033981295</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>428.8224802162921</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>428.8224802162921</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>428.8224802162921</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>428.8224802162921</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.010945960183</v>
+        <v>777.3160057777989</v>
       </c>
       <c r="C5" t="n">
-        <v>821.0484290197712</v>
+        <v>777.3160057777989</v>
       </c>
       <c r="D5" t="n">
-        <v>462.7827304130207</v>
+        <v>419.0503071710484</v>
       </c>
       <c r="E5" t="n">
-        <v>76.99447781477647</v>
+        <v>419.0503071710484</v>
       </c>
       <c r="F5" t="n">
-        <v>70.048977065573</v>
+        <v>412.1048064218449</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036443</v>
+        <v>398.1814023604358</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791251</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491377</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221263</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960183</v>
+        <v>1167.455337753611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960183</v>
+        <v>777.3160057777989</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>112.2661253207996</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>112.2661253207996</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
         <v>382.7169011658208</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782187</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782187</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782187</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782187</v>
+        <v>259.15607281871</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0064718412581</v>
+        <v>259.15607281871</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>259.15607281871</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.683675137274</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7211581968625</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>946.7211581968625</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>560.9329055986182</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>149.9470008090106</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>136.0235967476015</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1782.111371249199</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1782.111371249199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.283515201396</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951003</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.955373861002</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.955373861002</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>229.0333923118344</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1030765138943</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203583</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>326.6213191924214</v>
+        <v>136.7278130442839</v>
       </c>
       <c r="C16" t="n">
-        <v>326.6213191924214</v>
+        <v>136.7278130442839</v>
       </c>
       <c r="D16" t="n">
-        <v>326.6213191924214</v>
+        <v>136.7278130442839</v>
       </c>
       <c r="E16" t="n">
-        <v>178.7082256100283</v>
+        <v>136.7278130442839</v>
       </c>
       <c r="F16" t="n">
-        <v>178.7082256100283</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904388</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X16" t="n">
-        <v>326.6213191924214</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y16" t="n">
-        <v>326.6213191924214</v>
+        <v>136.7278130442839</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P18" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402495</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305959</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,31 +5738,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,25 +5774,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>286.9470307957487</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>286.9470307957487</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>136.8303913834129</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.8303913834129</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>136.8303913834129</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0926555785013</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y22" t="n">
-        <v>337.3000764349712</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>379.1484955647068</v>
+        <v>454.2145238948141</v>
       </c>
       <c r="C25" t="n">
-        <v>210.2123126367999</v>
+        <v>285.2783409669072</v>
       </c>
       <c r="D25" t="n">
-        <v>210.2123126367999</v>
+        <v>285.2783409669072</v>
       </c>
       <c r="E25" t="n">
-        <v>210.2123126367999</v>
+        <v>137.3652473845141</v>
       </c>
       <c r="F25" t="n">
-        <v>210.2123126367999</v>
+        <v>137.3652473845141</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>137.3652473845141</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>137.3652473845141</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>781.5895395384766</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.7969603949465</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6218,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1223.540514381815</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>999.7550991713207</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>999.7550991713207</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,25 +6485,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,13 +6546,13 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
         <v>2016.139981183168</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6652,19 +6652,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>830.5566314066585</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>2801.004654415707</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>3899.235428472201</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>355.6416303362487</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C34" t="n">
-        <v>355.6416303362487</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="X34" t="n">
-        <v>576.4342094797788</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y34" t="n">
-        <v>355.6416303362487</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,25 +6929,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,7 +6962,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2689.379386570904</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>2936.144514477368</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3243.46464775733</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3573.327275421363</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1402.476519323714</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1202.556509239267</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>978.7710940287726</v>
       </c>
       <c r="U37" t="n">
-        <v>1043.759793676903</v>
+        <v>978.7710940287726</v>
       </c>
       <c r="V37" t="n">
-        <v>789.0753054710162</v>
+        <v>724.0866058228858</v>
       </c>
       <c r="W37" t="n">
-        <v>499.6581354340557</v>
+        <v>724.0866058228858</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>724.0866058228858</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>724.0866058228858</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,7 +7187,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7257,13 +7257,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
         <v>2016.139981183168</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646855</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7466045204288</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.68627707012257</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.68627707012257</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.68627707012257</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.68627707012257</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7597,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.872136700086</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>987.1876484941987</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>987.1876484941987</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>987.1876484941987</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.3950693506686</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.6365520183392</v>
+        <v>465.2890973945349</v>
       </c>
       <c r="C46" t="n">
-        <v>562.7003690904323</v>
+        <v>296.352914466628</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>146.2362750542923</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>146.2362750542923</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>146.2362750542923</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1441.766311283278</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1241.84630119883</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1241.84630119883</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.84630119883</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V46" t="n">
-        <v>1241.84630119883</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W46" t="n">
-        <v>952.4291311618693</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X46" t="n">
-        <v>952.4291311618693</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.6365520183392</v>
+        <v>646.9375622247746</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028835</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.872441903933</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>91.23759968302116</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>253.7371603504723</v>
       </c>
       <c r="O21" t="n">
-        <v>297.3877236703344</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.6266194094361</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735871</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>39.8892334525668</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>180.0237016735864</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>78.94490833191199</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>106.3054336547732</v>
       </c>
       <c r="G16" t="n">
-        <v>85.81734565513258</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.9180917894944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>150.2339097797677</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.58378770356803</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>127.2764015394818</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>54.62829949862871</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>70.67257109928603</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>35.26316377306918</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.02968068083848</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>48.8408432116525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>90.99518209308914</v>
       </c>
       <c r="X34" t="n">
-        <v>137.3504089806911</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>14.48899868194673</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.55325026999142</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>53.01760831864974</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.4493346137978</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,19 +25837,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>31.76365987933866</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.9645767053112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.3858927219143</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027171</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409904</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131434.5071319743</v>
+        <v>-128906.185968532</v>
       </c>
       <c r="C6" t="n">
-        <v>458533.3720825706</v>
+        <v>461061.6932460127</v>
       </c>
       <c r="D6" t="n">
-        <v>458533.3720825698</v>
+        <v>461061.6932460125</v>
       </c>
       <c r="E6" t="n">
-        <v>35815.12732507855</v>
+        <v>37849.94656307509</v>
       </c>
       <c r="F6" t="n">
-        <v>560975.1638019746</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="G6" t="n">
-        <v>560975.1638019744</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="H6" t="n">
-        <v>560975.1638019742</v>
+        <v>563009.9830399716</v>
       </c>
       <c r="I6" t="n">
-        <v>560975.1638019745</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="J6" t="n">
-        <v>384551.9446093817</v>
+        <v>386586.7638473784</v>
       </c>
       <c r="K6" t="n">
-        <v>560975.1638019748</v>
+        <v>563009.9830399716</v>
       </c>
       <c r="L6" t="n">
-        <v>560975.1638019746</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="M6" t="n">
-        <v>426174.1485681371</v>
+        <v>428208.9678061339</v>
       </c>
       <c r="N6" t="n">
-        <v>560975.1638019745</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="O6" t="n">
-        <v>560975.1638019746</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="P6" t="n">
-        <v>560975.1638019746</v>
+        <v>563009.9830399716</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>206.3363417916028</v>
       </c>
       <c r="X2" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>1.968426899064241</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>62.49729197993619</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8392347280385</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.0580526745478</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>98.43097677636433</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>131.2567594568894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>242.6629639863925</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>319.0687997365012</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758288</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>108.3319998094377</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31282,19 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338303</v>
@@ -31303,19 +31303,19 @@
         <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,10 +31355,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890688</v>
@@ -31370,13 +31370,13 @@
         <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923046</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
         <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530451</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279169</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35103,13 +35103,13 @@
         <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>441.2361441450411</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>133.1477786379278</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35963,7 +35963,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,13 +35975,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.8510818313024</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>586.9317337484853</v>
       </c>
       <c r="O21" t="n">
-        <v>579.7514259114425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654604</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296115</v>
+        <v>278.7330645958057</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>190.464672040506</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37625,16 +37625,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>513.2182750715994</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323688.948305287</v>
+        <v>3399218.617970091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8360792.641111803</v>
+        <v>8360792.641111802</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>142.9046269258102</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>370.3008178223367</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2783941995636</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>188.8647200898094</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>57.73991206543082</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>94.09750908037805</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.3458007706943</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>67.16913891955241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.17579562641298</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>117.3776555795994</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>97.1277204557075</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>207.2924440666654</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>31.44776415445386</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.11561436815803</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.0841346218033</v>
       </c>
       <c r="X19" t="n">
-        <v>75.47574560926941</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.21716692389582</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>114.4314237113287</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.74667436498595</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.9306150952166</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>162.6576462105341</v>
+        <v>146.433057421098</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>242.2076717177389</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>129.7152197105133</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>45.29276869429082</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5278162435019</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>34.8554142544992</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>95.47535372184606</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>31.12299370203572</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.5670450334451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>66.03834299396291</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4644937537383609</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>48.52899175806638</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>29.9767297072773</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>2309.40863894584</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
         <v>2022.963088632153</v>
@@ -4516,22 +4518,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3160057777989</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>777.3160057777989</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0503071710484</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>419.0503071710484</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>412.1048064218449</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>398.1814023604358</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990284</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284805</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.92109601469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753611</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.3160057777989</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>112.2661253207996</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>112.2661253207996</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245968</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245968</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245968</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V7" t="n">
-        <v>259.15607281871</v>
+        <v>295.8809182883537</v>
       </c>
       <c r="W7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.15607281871</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1687.824948651781</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E8" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,46 +4810,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862884</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519314</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249199</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249199</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>98.56499760462</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>98.56499760462</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>438.955373861002</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W10" t="n">
-        <v>438.955373861002</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>245.4549451025304</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>245.4549451025304</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,28 +5032,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,7 +5065,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433115</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.7517393246783</v>
+        <v>195.3259000014046</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>195.3259000014046</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>195.3259000014046</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>195.3259000014046</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>195.3259000014046</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U13" t="n">
-        <v>1089.609953335409</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V13" t="n">
-        <v>1089.609953335409</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W13" t="n">
-        <v>800.1927832984481</v>
+        <v>644.108030042952</v>
       </c>
       <c r="X13" t="n">
-        <v>800.1927832984481</v>
+        <v>416.1184791449347</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.400204154918</v>
+        <v>195.3259000014046</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5291,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.7278130442839</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>136.7278130442839</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>136.7278130442839</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>136.7278130442839</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858313</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X16" t="n">
-        <v>357.520392187814</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.7278130442839</v>
+        <v>275.8724572960284</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1908.095276920732</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>2187.63534213943</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X19" t="n">
-        <v>598.4804449097754</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.6878657662453</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3400.7765748652</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3708.096708145162</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.9470307957487</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C22" t="n">
-        <v>286.9470307957487</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>136.8303913834129</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>136.8303913834129</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>136.8303913834129</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259884</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y22" t="n">
-        <v>468.5954956259884</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>454.2145238948141</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C25" t="n">
-        <v>285.2783409669072</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D25" t="n">
-        <v>285.2783409669072</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E25" t="n">
-        <v>137.3652473845141</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>137.3652473845141</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>137.3652473845141</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>137.3652473845141</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383442</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383442</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="X25" t="n">
-        <v>675.0071030383442</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="Y25" t="n">
-        <v>454.2145238948141</v>
+        <v>505.7582697485844</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4221461351941</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1223.540514381815</v>
+        <v>1239.928987906498</v>
       </c>
       <c r="T28" t="n">
-        <v>999.7550991713207</v>
+        <v>1239.928987906498</v>
       </c>
       <c r="U28" t="n">
-        <v>999.7550991713207</v>
+        <v>950.8003491200559</v>
       </c>
       <c r="V28" t="n">
-        <v>745.0706109654338</v>
+        <v>696.115860914169</v>
       </c>
       <c r="W28" t="n">
-        <v>745.0706109654338</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X28" t="n">
-        <v>745.0706109654338</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.0706109654338</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>3883.555759916434</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.223678370532</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>394.223678370532</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6652,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>830.5566314066585</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>575.8721432007717</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="W31" t="n">
-        <v>575.8721432007717</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X31" t="n">
-        <v>575.8721432007717</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y31" t="n">
-        <v>575.8721432007717</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>306.3284467737876</v>
       </c>
       <c r="L33" t="n">
-        <v>2801.004654415707</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M33" t="n">
-        <v>3569.372800808168</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.235428472201</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.3055067228584</v>
+        <v>441.2984649031102</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3055067228584</v>
+        <v>441.2984649031102</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>441.2984649031102</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>293.3853713207171</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>293.3853713207171</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W34" t="n">
-        <v>822.9435224511154</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X34" t="n">
-        <v>594.9539715530981</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.9539715530981</v>
+        <v>622.94692973335</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>2689.379386570904</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L36" t="n">
-        <v>2936.144514477368</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M36" t="n">
-        <v>3243.46464775733</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>3573.327275421363</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.438140992646</v>
+        <v>3981.892396122777</v>
       </c>
       <c r="C37" t="n">
-        <v>542.438140992646</v>
+        <v>3812.956213194871</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>3812.956213194871</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1402.476519323714</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1202.556509239267</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>978.7710940287726</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U37" t="n">
-        <v>978.7710940287726</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V37" t="n">
-        <v>724.0866058228858</v>
+        <v>4271.309566159738</v>
       </c>
       <c r="W37" t="n">
-        <v>724.0866058228858</v>
+        <v>3981.892396122777</v>
       </c>
       <c r="X37" t="n">
-        <v>724.0866058228858</v>
+        <v>3981.892396122777</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.0866058228858</v>
+        <v>3981.892396122777</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7202,10 +7204,10 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
         <v>3931.29497012173</v>
@@ -7239,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7256,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>296.8297805162589</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X40" t="n">
-        <v>581.3058073983082</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.0663679705859</v>
+        <v>465.7659634441658</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7494,13 +7496,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365139</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
         <v>2016.139981183168</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.8029164824583</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C43" t="n">
-        <v>247.8029164824583</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68627707012257</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68627707012257</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68627707012257</v>
+        <v>163.9224884238847</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68627707012257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259884</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8029164824583</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,16 +7651,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7673,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N45" t="n">
-        <v>3973.880983602625</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>465.2890973945349</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C46" t="n">
-        <v>296.352914466628</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D46" t="n">
-        <v>146.2362750542923</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>146.2362750542923</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>146.2362750542923</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7839,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>874.927113122792</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>874.927113122792</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X46" t="n">
-        <v>646.9375622247746</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y46" t="n">
-        <v>646.9375622247746</v>
+        <v>912.983647808858</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028835</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951791</v>
+        <v>90.64146763747118</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.872441903933</v>
+        <v>253.7371603504734</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>213.2603911806621</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>43.65987261462419</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>145.2351313103796</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="N21" t="n">
-        <v>253.7371603504723</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6093329825491</v>
+        <v>145.2351313103787</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>50.6266194094361</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>20.63789864135424</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>444.4889386861659</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>91.23759968302079</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>39.8892334525668</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>283.6093329825486</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498451</v>
+        <v>38.86002301949827</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498449</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>28.12263706262996</v>
       </c>
       <c r="N45" t="n">
-        <v>180.0237016735864</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>69.36584800767008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>78.94490833191199</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>148.3842160274834</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>106.3054336547732</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>67.43886371478769</v>
       </c>
       <c r="X19" t="n">
-        <v>150.2339097797677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>127.2764015394818</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>172.0915746252622</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>70.67257109928603</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>39.59238324137442</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.26316377306918</v>
+        <v>51.48775256250528</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.02968068083848</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>122.4224236133147</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>121.2007997690868</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.99518209308914</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>111.57854839207</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>14.48899868194673</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4924793161766</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.01760831864974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>100.4552254694147</v>
       </c>
       <c r="H43" t="n">
-        <v>148.4493346137978</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>117.9645767053112</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>195.7329256817598</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027174</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="M2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230232</v>
@@ -26442,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="M4" t="n">
-        <v>29303.54555230237</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.185968532</v>
+        <v>-128906.1859685323</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460127</v>
+        <v>461061.6932460123</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460125</v>
+        <v>461061.6932460121</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307509</v>
+        <v>37849.94656307496</v>
       </c>
       <c r="F6" t="n">
         <v>563009.9830399714</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399712</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399716</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="I6" t="n">
-        <v>563009.9830399714</v>
+        <v>563009.983039971</v>
       </c>
       <c r="J6" t="n">
         <v>386586.7638473784</v>
       </c>
       <c r="K6" t="n">
+        <v>563009.9830399717</v>
+      </c>
+      <c r="L6" t="n">
+        <v>563009.9830399714</v>
+      </c>
+      <c r="M6" t="n">
+        <v>428208.9678061338</v>
+      </c>
+      <c r="N6" t="n">
         <v>563009.9830399716</v>
       </c>
-      <c r="L6" t="n">
-        <v>563009.9830399712</v>
-      </c>
-      <c r="M6" t="n">
-        <v>428208.9678061339</v>
-      </c>
-      <c r="N6" t="n">
-        <v>563009.9830399714</v>
-      </c>
       <c r="O6" t="n">
-        <v>563009.9830399712</v>
+        <v>563009.983039971</v>
       </c>
       <c r="P6" t="n">
-        <v>563009.9830399716</v>
+        <v>563009.9830399713</v>
       </c>
     </row>
   </sheetData>
@@ -26735,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>206.3363417916028</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>15.9371208337169</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>1.968426899064241</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>135.0580526745478</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>98.43097677636433</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>192.425489256213</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.58456930156751</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.0687997365012</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>111.9950932153821</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>108.3319998094377</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>441.2361441450411</v>
+        <v>536.1008625915816</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>495.6240934217703</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>354.0842496650906</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>352.3285462419043</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043997</v>
       </c>
       <c r="N21" t="n">
-        <v>586.9317337484853</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0337100330154</v>
+        <v>455.6595083608451</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>299.8843243654604</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>353.8324720393672</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241289</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>169.3134122708527</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958057</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>190.464672040506</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330149</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003114</v>
+        <v>349.2844000699646</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -38035,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>338.5470141130963</v>
       </c>
       <c r="N45" t="n">
-        <v>513.2182750715994</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3399218.617970091</v>
+        <v>3392201.603078381</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8360792.641111802</v>
+        <v>8360792.641111803</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>98.63122914173753</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.3008178223367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>94.8673310973342</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>94.09750908037805</v>
+        <v>173.9313784350746</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3458007706943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.46179076613002</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.17579562641298</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>97.1277204557075</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>49.75434178245074</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.44776415445386</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.30910107930799</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>219.0841346218033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>114.4314237113287</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>246.9306150952166</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>146.433057421098</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.4102587451269</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>129.7152197105133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>29.18937547121085</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>45.29276869429082</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>176.7412772566565</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.8554142544992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>31.12299370203572</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.03834299396291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>29.9767297072773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>153.5704860039377</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2370.117326895881</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2116.355541533972</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2116.355541533972</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883537</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.787465592192</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1687.824948651781</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.55925004503</v>
+        <v>74.811886630977</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.387305656314</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025304</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C10" t="n">
-        <v>245.4549451025304</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>245.4549451025304</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>245.4549451025304</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>98.56499760462</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>98.56499760462</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025304</v>
+        <v>625.3202087220411</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025304</v>
+        <v>404.527629578511</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,58 +5032,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.3259000014046</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>195.3259000014046</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>195.3259000014046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>195.3259000014046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>195.3259000014046</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488389</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>644.108030042952</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>644.108030042952</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>416.1184791449347</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.3259000014046</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395585</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X16" t="n">
-        <v>496.6650364395585</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>275.8724572960284</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.921157035281</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.921157035281</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>966.6240513566914</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,67 +5737,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975556</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>415.8104215925219</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>505.7582697485844</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>505.7582697485844</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811264</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>505.7582697485844</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>505.7582697485844</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>505.7582697485844</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1239.928987906498</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1239.928987906498</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>950.8003491200559</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>696.115860914169</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6460,16 +6460,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3883.555759916434</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V31" t="n">
-        <v>944.1853708078966</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W31" t="n">
-        <v>654.768200770936</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X31" t="n">
-        <v>426.7786498729187</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>306.3284467737876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>553.0935746802517</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>441.2984649031102</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>441.2984649031102</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>441.2984649031102</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>293.3853713207171</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>293.3853713207171</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>843.7395088768801</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>843.7395088768801</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y34" t="n">
-        <v>622.94692973335</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3981.892396122777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3812.956213194871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3812.956213194871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365625</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4525.994054365625</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>4271.309566159738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>3981.892396122777</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>3981.892396122777</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>3981.892396122777</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7204,22 +7204,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>465.7659634441658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>296.8297805162589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>755.1831334811264</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441658</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>465.7659634441658</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>465.7659634441658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>163.9224884238847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556557</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.776226952388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>912.983647808858</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992674</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747118</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504734</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>213.2603911806621</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>43.65987261462419</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>145.2351313103787</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>20.63789864135424</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.23759968302079</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>18.73797368291349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>283.6093329825486</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>38.86002301949827</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>28.12263706262996</v>
+        <v>234.4116509503167</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>69.36584800767008</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>168.830311569644</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3842160274834</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.9377200193198</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>67.43886371478769</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>172.0915746252622</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>87.77261239840719</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>39.59238324137442</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>51.48775256250528</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>18.11273959146411</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>122.4224236133147</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>189.395277880884</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>121.2007997690868</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,10 +25131,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>41.84337609543826</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>111.57854839207</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>117.4924793161766</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4552254694147</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>195.7329256817598</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712816.6064027174</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.85454099</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409899</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26450,13 +26450,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="N4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-128906.1859685323</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460123</v>
+        <v>461061.6932460124</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460121</v>
+        <v>461061.6932460129</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307496</v>
+        <v>36875.35530335388</v>
       </c>
       <c r="F6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="I6" t="n">
-        <v>563009.983039971</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="J6" t="n">
-        <v>386586.7638473784</v>
+        <v>385612.1725876563</v>
       </c>
       <c r="K6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="L6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802498</v>
       </c>
       <c r="M6" t="n">
-        <v>428208.9678061338</v>
+        <v>427234.3765464126</v>
       </c>
       <c r="N6" t="n">
-        <v>563009.9830399716</v>
+        <v>562035.3917802498</v>
       </c>
       <c r="O6" t="n">
-        <v>563009.983039971</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="P6" t="n">
-        <v>563009.9830399713</v>
+        <v>562035.39178025</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>53.30008710312372</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.9371208337169</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>121.5809892603236</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>192.425489256213</v>
+        <v>112.5916199015164</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.58456930156751</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428415</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>111.9950932153821</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770693</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328948</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915816</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>495.6240934217703</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>354.0842496650906</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>595.5275127043997</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>455.6595083608451</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>353.8324720393672</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>373.6013019241289</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>169.3134122708527</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>594.0337100330149</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>349.2844000699646</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>338.5470141130963</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3392201.603078381</v>
+        <v>3397140.865927413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>98.63122914173753</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>75.30729779173569</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>92.9589210624993</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>94.8673310973342</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>173.9313784350746</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>208.279329433658</v>
       </c>
     </row>
     <row r="8">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.46179076613002</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.8594580520673</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.75434178245074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.30910107930799</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>79.47420870022064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445596</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>144.3521919907244</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>268.4102587451269</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.18937547121085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>176.7412772566565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>898.729014069748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>480.7652059679349</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>153.5704860039377</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2566.052423981306</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4467,22 +4467,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1335.056293381666</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>976.7905947749157</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>976.7905947749157</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>565.8046899853082</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>147.8408818834951</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>147.8408818834951</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2370.117326895881</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2116.355541533972</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2116.355541533972</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.586886263858</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1763.586886263858</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027575</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4407231609042</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4786,49 +4786,49 @@
         <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>74.811886630977</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
         <v>2636.076575092838</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482713</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220411</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.527629578511</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,16 +5123,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441654</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.509052552801</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5284,13 +5284,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
         <v>1198.760773441947</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5843,13 +5843,13 @@
         <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,10 +5937,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011506</v>
@@ -5968,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.0893717830343</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830343</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>804.0893717830343</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>804.0893717830343</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y28" t="n">
-        <v>804.0893717830343</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,22 +6487,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>354.6908600059909</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>126.7013091079736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7833,13 +7833,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
         <v>614.6238123952637</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4116509503167</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.27818527176069</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.830311569644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.9377200193198</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>87.77261239840719</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>52.31591677926838</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>35.47978819121289</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>18.11273959146411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>189.395277880884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.84337609543826</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="10">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312485</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
         <v>684300.85454099</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409899</v>
-      </c>
       <c r="K2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409904</v>
@@ -26352,10 +26352,10 @@
         <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230237</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26481,16 +26481,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685323</v>
+        <v>-128906.185968532</v>
       </c>
       <c r="C6" t="n">
         <v>461061.6932460124</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460129</v>
+        <v>461061.6932460122</v>
       </c>
       <c r="E6" t="n">
-        <v>36875.35530335388</v>
+        <v>37752.48743710302</v>
       </c>
       <c r="F6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139992</v>
       </c>
       <c r="G6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="H6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139994</v>
       </c>
       <c r="I6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="J6" t="n">
-        <v>385612.1725876563</v>
+        <v>386489.3047214061</v>
       </c>
       <c r="K6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="L6" t="n">
-        <v>562035.3917802498</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="M6" t="n">
-        <v>427234.3765464126</v>
+        <v>428111.5086801621</v>
       </c>
       <c r="N6" t="n">
-        <v>562035.3917802498</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="O6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="P6" t="n">
-        <v>562035.39178025</v>
+        <v>562912.5239139993</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>53.30008710312372</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>99.10841501723584</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>58.97239518236195</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>121.5809892603236</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>112.5916199015164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>10.30532391843681</v>
       </c>
     </row>
     <row r="8">
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>113.9539220428415</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4187013741504</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>394.4928362664038</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,13 +35734,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>544.836028000783</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
